--- a/data/income_statement/3digits/total/453_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/453_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>453-Sale of motor vehicle parts and accessories</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>453-Sale of motor vehicle parts and accessories</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>13146374.85688</v>
@@ -956,37 +862,42 @@
         <v>15915623.79114</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>20254239.91139</v>
+        <v>20254621.95317</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>24093692.06649</v>
+        <v>24094768.5468</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>26185808.24118</v>
+        <v>26201235.58872</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31090955.69633</v>
+        <v>31124690.12603</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>35891902.08235001</v>
+        <v>36028520.43104</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>36091567.71903999</v>
+        <v>40805137.59158</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>55564102.98647</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>71520741.57966</v>
+        <v>71771550.9639</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>85338112.91366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>85785676.24542001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>106302963.905</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11002995.6915</v>
@@ -995,37 +906,42 @@
         <v>13378676.30612</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>16887417.49735</v>
+        <v>16887799.06413</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>19910140.8319</v>
+        <v>19911217.31221</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>21228742.79256</v>
+        <v>21244119.04114</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>24607129.45485</v>
+        <v>24639240.16873</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>28760999.04172</v>
+        <v>28834298.83209</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>28237247.74779</v>
+        <v>31862183.53699</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>42969757.46926</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>54328459.50154001</v>
+        <v>54383018.79803</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>65255547.68696</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>65635898.52605</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>73445508.16500001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1888814.45958</v>
@@ -1040,31 +956,36 @@
         <v>3653073.38198</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4334196.14534</v>
+        <v>4334210.70464</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>5757751.75241</v>
+        <v>5759058.30005</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>6284620.201859999</v>
+        <v>6345488.31408</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6931412.70465</v>
+        <v>7896472.05405</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>11250260.88989</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>15435272.24921</v>
+        <v>15631304.55182</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>18053725.00545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18107451.43817</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>30296859.365</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>254564.7058</v>
@@ -1073,76 +994,86 @@
         <v>289568.36428</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>407029.02471</v>
+        <v>407029.4997100001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>530477.8526100001</v>
+        <v>530477.8526099999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>622869.30328</v>
+        <v>622905.8429399999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>726074.4890699999</v>
+        <v>726391.6572499999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>846282.83877</v>
+        <v>848733.2848699999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>922907.2666000001</v>
+        <v>1046482.00054</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1344084.62732</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1757009.82891</v>
+        <v>1757227.61405</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2028840.22125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2042326.2812</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2560596.375</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>542822.0306000001</v>
+        <v>542822.0305999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>644639.6101899999</v>
+        <v>644639.61019</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>823742.8262500002</v>
+        <v>823751.8134100001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1313117.83553</v>
+        <v>1313128.68193</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1523461.07866</v>
+        <v>1524453.65574</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1355595.8438</v>
+        <v>1356140.72339</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1567238.99756</v>
+        <v>1569686.89921</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1468074.89276</v>
+        <v>1501815.5708</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2027542.15775</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2633163.45502</v>
+        <v>2633388.02025</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3166608.28034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3171497.31254</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4224906.065</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>198604.44386</v>
@@ -1151,37 +1082,42 @@
         <v>175696.39568</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>222813.83505</v>
+        <v>222822.82221</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>280400.05195</v>
+        <v>280410.89835</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>294789.6219</v>
+        <v>294922.69958</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>365158.9857899999</v>
+        <v>365625.54126</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>358036.93329</v>
+        <v>359318.08062</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>438113.5188099999</v>
+        <v>445775.03874</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>595662.9863999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>759997.10188</v>
+        <v>760220.10199</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>799161.5306300001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>803491.72749</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1108044.587</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>328302.21887</v>
@@ -1193,34 +1129,39 @@
         <v>510734.13924</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>975317.9098100001</v>
+        <v>975317.90981</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1155386.50225</v>
+        <v>1156201.80449</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>892332.5372500001</v>
+        <v>892410.8613699999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1112392.02964</v>
+        <v>1113556.10422</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>934110.9355199999</v>
+        <v>945045.7540799999</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1277451.76725</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1625629.80837</v>
+        <v>1625631.37349</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2086777.15112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2086941.34711</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>2725002.733</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15915.36787</v>
@@ -1229,22 +1170,22 @@
         <v>53474.66381000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>90194.85196000001</v>
+        <v>90194.85196</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>57399.87377</v>
+        <v>57399.87377000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>73284.95451</v>
+        <v>73329.15167000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>98104.32075999999</v>
+        <v>98104.32076</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>96810.03462999999</v>
+        <v>96812.71436999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>95850.43842999999</v>
+        <v>110994.77798</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>154427.4041</v>
@@ -1253,13 +1194,18 @@
         <v>247536.54477</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>280669.59859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>281064.23794</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>391858.745</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>12603552.82628</v>
@@ -1268,37 +1214,42 @@
         <v>15270984.18095</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>19430497.08514</v>
+        <v>19430870.13976</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>22780574.23096</v>
+        <v>22781639.86487</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>24662347.16252</v>
+        <v>24676781.93298</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>29735359.85253</v>
+        <v>29768549.40264</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>34324663.08479</v>
+        <v>34458833.53183001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>34623492.82628</v>
+        <v>39303322.02078</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>53536560.82872</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>68887578.12464</v>
+        <v>69138162.94364999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>82171504.63332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>82614178.93288</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>102078057.84</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>10886978.45114</v>
@@ -1307,37 +1258,42 @@
         <v>13268239.3409</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>16813189.07178</v>
+        <v>16813502.37131</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>19843733.39412</v>
+        <v>19844401.4552</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>21348279.73554</v>
+        <v>21358424.1997</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>25939747.22123</v>
+        <v>25968022.70761</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>29870391.30878</v>
+        <v>29990987.68232</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>29684635.94558</v>
+        <v>34106820.2758</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>46882351.08303</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>60279304.62952</v>
+        <v>60586426.28666</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>72646668.21109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>73035009.34358999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>90301921.98899999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>308020.84677</v>
@@ -1355,28 +1311,33 @@
         <v>718469.79528</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>794045.1186500001</v>
+        <v>794418.57731</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1318924.87867</v>
+        <v>1321514.77499</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1579829.63512</v>
+        <v>1610150.73077</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2280888.68728</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2940703.26421</v>
+        <v>2941994.86884</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3590960.24927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3633944.106850001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3297036.555</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>10341707.64174</v>
@@ -1385,37 +1346,42 @@
         <v>12624528.8464</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>16001694.02344</v>
+        <v>16002005.7986</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>17384367.82934</v>
+        <v>17385035.89042</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>20171476.44125</v>
+        <v>20179377.03184</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>24698881.30338</v>
+        <v>24726778.48603</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>27953021.83512</v>
+        <v>28064184.93351</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>27471679.93628</v>
+        <v>31850831.38359001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>43773837.00198001</v>
+        <v>43773837.00198</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>56460207.16018</v>
+        <v>56701379.44817</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>67911676.21453001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>68234271.9883</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>85860914.573</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>226057.77269</v>
@@ -1424,37 +1390,42 @@
         <v>245334.92905</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>304595.53107</v>
+        <v>304597.0554399999</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>397016.5211</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>415768.70443</v>
+        <v>417988.81875</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>415034.61948</v>
+        <v>415039.46455</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>557958.81488</v>
+        <v>563732.6711</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>573639.9101</v>
+        <v>583508.0432300001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>754846.82135</v>
+        <v>754846.8213499999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>811292.8201</v>
+        <v>875922.4416</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>956217.1710500001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>977822.7662599999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1010232.213</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>11192.18994</v>
@@ -1469,31 +1440,36 @@
         <v>18274.04334</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>42564.79458</v>
+        <v>42588.55383</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>31786.17972</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>40485.78011</v>
+        <v>41555.30272</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>59486.46408</v>
+        <v>62330.11821</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>72778.57242000001</v>
+        <v>72778.57242</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>67101.38503</v>
+        <v>67129.52804999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>187814.57624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>188970.48218</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>133738.648</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1716574.37514</v>
@@ -1502,37 +1478,42 @@
         <v>2002744.84005</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2617308.01336</v>
+        <v>2617367.76845</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2936840.83684</v>
+        <v>2937238.40967</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3314067.42698</v>
+        <v>3318357.73328</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3795612.6313</v>
+        <v>3800526.69503</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4454271.77601</v>
+        <v>4467845.84951</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>4938856.8807</v>
+        <v>5196501.744980001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6654209.745689999</v>
+        <v>6654209.74569</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8608273.495119998</v>
+        <v>8551736.656989999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9524836.422230002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9579169.589289999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11776135.851</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1215553.31075</v>
@@ -1541,37 +1522,42 @@
         <v>1432466.59013</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1788848.89554</v>
+        <v>1788931.12931</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2085580.48029</v>
+        <v>2085616.0805</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2326725.01827</v>
+        <v>2329483.60735</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2616443.12405</v>
+        <v>2620505.44396</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3009608.52295</v>
+        <v>3022307.96033</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3364071.69412</v>
+        <v>3525908.70995</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4203919.93461</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5141307.01109</v>
+        <v>5156176.1311</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6002604.16028</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6050524.134870001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6793967.789</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1619.48228</v>
@@ -1592,7 +1578,7 @@
         <v>2528.01303</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>9554.030699999999</v>
+        <v>9554.030700000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2632.59168</v>
@@ -1601,16 +1587,21 @@
         <v>14570.20297</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7528.48406</v>
+        <v>7529.177459999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>3351.60441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3355.12882</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1336.515</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>453564.80505</v>
@@ -1619,37 +1610,42 @@
         <v>576943.98052</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>748984.0031800001</v>
+        <v>748995.63027</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>882591.68139</v>
+        <v>882613.6449900001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>961919.2155299999</v>
+        <v>963222.85898</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1119085.8064</v>
+        <v>1121707.89992</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1364910.7957</v>
+        <v>1370663.56974</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1583338.7546</v>
+        <v>1650146.88479</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2006366.43769</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2554783.52926</v>
+        <v>2555987.59188</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2952961.562799999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2962514.89327</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>3420502.129</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>760369.02342</v>
@@ -1658,37 +1654,42 @@
         <v>854322.79371</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1038476.01774</v>
+        <v>1038546.62442</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1201592.04919</v>
+        <v>1201605.6858</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1360083.68841</v>
+        <v>1361538.63404</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1494829.30462</v>
+        <v>1496269.53101</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1635143.69655</v>
+        <v>1642090.35989</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1778100.34784</v>
+        <v>1873129.23348</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2182983.29395</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2578994.99777</v>
+        <v>2592659.36176</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3046290.99307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3084654.11278</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3372129.145</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>501021.0643900001</v>
@@ -1697,37 +1698,42 @@
         <v>570278.2499200001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>828459.11782</v>
+        <v>828436.6391400001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>851260.35655</v>
+        <v>851622.32917</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>987342.4087099999</v>
+        <v>988874.12593</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1179169.50725</v>
+        <v>1180021.25107</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1444663.25306</v>
+        <v>1445537.88918</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1574785.18658</v>
+        <v>1670593.03503</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2450289.81108</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3466966.48403</v>
+        <v>3395560.52589</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>3522232.26195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3528645.45442</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4982168.062</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>224489.37101</v>
@@ -1736,40 +1742,45 @@
         <v>248733.36239</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>374796.01238</v>
+        <v>374796.97458</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>435932.5652</v>
+        <v>435933.32192</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>664319.2515199999</v>
+        <v>664577.9249700001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>713858.76982</v>
+        <v>713905.91176</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1212798.5901</v>
+        <v>1217136.53054</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1096340.79515</v>
+        <v>1199701.72774</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1874506.57092</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3452823.24375</v>
+        <v>3496532.70964</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2642388.21607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2652662.53031</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3871124.073</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>8772.887470000001</v>
+        <v>8772.88747</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>14704.79039</v>
@@ -1784,28 +1795,33 @@
         <v>8330.083339999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>8984.988370000001</v>
+        <v>8984.988369999999</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>10367.4098</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>27010.38329</v>
+        <v>27293.65371</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>24372.57173</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>28632.52831</v>
+        <v>28632.52830999999</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>40408.38266</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>20652.197</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>84.92525999999999</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>66954.21388</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>45357.133</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13927.27866</v>
@@ -1856,34 +1877,39 @@
         <v>12678.70135</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>24120.09817</v>
+        <v>24120.10732</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>26347.22052</v>
+        <v>26347.2977</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32866.64149</v>
+        <v>32874.50743</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>47223.79815</v>
+        <v>47461.09893</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>53864.47623000001</v>
+        <v>56954.03194</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>77379.55609999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>116591.28605</v>
+        <v>116780.27138</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>140394.07629</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>140969.92283</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>150796.017</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>5652.17429</v>
@@ -1901,28 +1927,33 @@
         <v>8347.165080000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>9347.262909999999</v>
+        <v>9347.762909999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14843.8634</v>
+        <v>14845.1134</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>16518.47196</v>
+        <v>21898.06619</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>25939.94618</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>20864.31578</v>
+        <v>20866.31578</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>29289.42295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>29319.52675</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>38987.671</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3236.02609</v>
@@ -1946,22 +1977,27 @@
         <v>15405.17432</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7785.4096</v>
+        <v>8146.52038</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>7031.071150000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>45805.43379000001</v>
+        <v>45805.43379</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>21538.62743</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>24581.21</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>3025.67694</v>
@@ -1982,7 +2018,7 @@
         <v>2392.81003</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>18188.76205</v>
+        <v>18193.02492</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>1542.32076</v>
@@ -1991,16 +2027,21 @@
         <v>3355.05314</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5816.089970000001</v>
+        <v>5816.08997</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8235.734780000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>8254.677159999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>13867.727</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>124732.22872</v>
@@ -2012,37 +2053,42 @@
         <v>238801.10199</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>261650.93429</v>
+        <v>261651.68183</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>478216.68271</v>
+        <v>478475.27898</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>513775.5044500001</v>
+        <v>513804.97541</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>966534.0506</v>
+        <v>970074.9068600001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>826820.01265</v>
+        <v>914450.1911800001</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1532129.34899</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2942250.27229</v>
+        <v>2984188.5568</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2048948.60923</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2055241.78479</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3326856.671</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>801.9253299999999</v>
+        <v>801.92533</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>932.17011</v>
@@ -2051,7 +2097,7 @@
         <v>1034.98385</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>773.1890100000002</v>
+        <v>773.1890100000001</v>
       </c>
       <c r="G33" s="48" t="n">
         <v>7083.7012</v>
@@ -2063,7 +2109,7 @@
         <v>9269.04134</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>10922.95836</v>
+        <v>11594.28228</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>13754.83244</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>47633.59551</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>39993.885</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>153.15584</v>
@@ -2105,7 +2156,7 @@
         <v>286.00137</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>394.3214800000001</v>
+        <v>394.32148</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>836.6440299999999</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>1062.75445</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1098.092</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>64103.09241</v>
@@ -2126,37 +2182,42 @@
         <v>81755.43328</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>89375.38247</v>
+        <v>89376.34467000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>114243.44777</v>
+        <v>114243.4478</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>114533.98305</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>115220.35983</v>
+        <v>115229.66487</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>124942.08427</v>
+        <v>125496.3548</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>132514.77952</v>
+        <v>138460.67852</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>173449.32127</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>208250.58369</v>
+        <v>209830.77974</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>237922.79889</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>241279.04485</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>208933.47</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>177384.33807</v>
@@ -2168,37 +2229,42 @@
         <v>317448.90015</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>334871.49304</v>
+        <v>334871.65463</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>591372.0771699999</v>
+        <v>592435.85512</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>618581.5367300001</v>
+        <v>618619.33678</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1178204.08836</v>
+        <v>1179843.24431</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1058597.07601</v>
+        <v>1154088.61578</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1920831.76011</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3658466.39914</v>
+        <v>3695488.18895</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2366122.38379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2372042.04907</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3651870.338</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4273.53664</v>
+        <v>4273.536639999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>4551.12888</v>
@@ -2213,28 +2279,33 @@
         <v>8222.68873</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>8104.36861</v>
+        <v>8104.37416</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12566.38435</v>
+        <v>12566.50156</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12236.66707</v>
+        <v>12649.31782</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>22787.56383</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>39865.66487000001</v>
+        <v>40073.93965</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>52328.16366</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>52365.51364999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>47322.494</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21418.73168</v>
@@ -2249,31 +2320,36 @@
         <v>51522.46178</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>31663.65797</v>
+        <v>31722.96715</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>45786.80976</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>45932.85707</v>
+        <v>45932.85706999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36833.36809</v>
+        <v>37780.92775</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>32282.7355</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>91931.84213999998</v>
+        <v>92005.59213999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>62034.97256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>62215.42799</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>42951.506</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>829.4151800000001</v>
@@ -2306,13 +2382,18 @@
         <v>823.46239</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6035.666850000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>6035.66685</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1978.241</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>128284.02727</v>
@@ -2324,34 +2405,39 @@
         <v>272884.97199</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>246194.08443</v>
+        <v>246194.14008</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>513359.97657</v>
+        <v>514364.44534</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>513539.345</v>
+        <v>513572.5767</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1064907.58477</v>
+        <v>1066506.2968</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>937593.9949100001</v>
+        <v>1023646.14696</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1711347.41217</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3354656.96528</v>
+        <v>3391332.01362</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2129434.56973</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2135110.36402</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3372702.266</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>915.21514</v>
@@ -2375,28 +2461,33 @@
         <v>10110.0481</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>11735.87631</v>
+        <v>12252.06702</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>15756.40232</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>62159.67318999999</v>
+        <v>62159.67319000001</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>47195.24673000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>47720.662</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>9.365770000000001</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>93.13982</v>
+        <v>93.13981999999999</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>37.94744</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.00011</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>21654.04639</v>
@@ -2441,34 +2537,39 @@
         <v>17368.79578</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>26538.03371</v>
+        <v>26538.13965</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>28082.88931</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>39885.77512</v>
+        <v>39890.33791999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>44006.62929</v>
+        <v>44046.956</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>57101.79398</v>
+        <v>64664.78058</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>126452.81729</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>109028.79099</v>
+        <v>109093.50768</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>69093.76415</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>69119.82971999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>139195.169</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>207469.79525</v>
@@ -2480,34 +2581,39 @@
         <v>266172.68064</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>351041.48382</v>
+        <v>351042.2111</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>380794.88403</v>
+        <v>381653.80536</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>451359.9553099999</v>
+        <v>451916.00647</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>573120.1505099999</v>
+        <v>574740.1754600001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>657298.82682</v>
+        <v>673461.92227</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>865582.62369</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1383860.84457</v>
+        <v>1384047.66961</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1531360.41141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1536583.60695</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1340626.283</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>200917.12152</v>
@@ -2519,34 +2625,39 @@
         <v>256018.89482</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>336648.16285</v>
+        <v>336648.89013</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>362924.29818</v>
+        <v>363783.21951</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>427388.40049</v>
+        <v>427944.45165</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>540265.53816</v>
+        <v>541885.56311</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>639089.2135800001</v>
+        <v>655226.6749400001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>836018.45172</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1338647.50281</v>
+        <v>1338813.82647</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1477275.51972</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1482492.83604</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1273836.011</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>6552.67373</v>
@@ -2570,100 +2681,115 @@
         <v>32854.61235</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>18209.61324</v>
+        <v>18235.24733</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>29564.17197</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>45213.34176</v>
+        <v>45233.84314</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>54084.89169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>54090.77091</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>66790.272</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>340656.30208</v>
+        <v>340656.3020800001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>469757.05681</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>619633.5494100001</v>
+        <v>619612.0329300001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>601279.94489</v>
+        <v>601641.78536</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>679494.69903</v>
+        <v>679362.39042</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>823086.78503</v>
+        <v>823391.8195799999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>906137.6042899999</v>
+        <v>908090.9999500001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>955230.0789000001</v>
+        <v>1042744.22472</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1538381.9982</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>1877462.48407</v>
+        <v>1812557.37697</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2267137.68282</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2272682.32871</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>3860795.514</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>46150.29935</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>45490.4291</v>
+        <v>45490.42909999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>55529.48508</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>60603.7295</v>
+        <v>60603.76782000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>90377.26497</v>
+        <v>90389.41325</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>152008.13064</v>
+        <v>152171.87089</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>154526.31519</v>
+        <v>154849.11262</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>143743.49855</v>
+        <v>178481.3992</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>198099.52076</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>219731.88409</v>
+        <v>221546.18644</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>333644.22046</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>335027.67954</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>334205.06</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1231.00713</v>
@@ -2687,61 +2813,71 @@
         <v>12686.90691</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6425.024800000001</v>
+        <v>6441.85649</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2484.64309</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5832.620530000001</v>
+        <v>5832.620529999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4753.25899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>4754.61665</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5027.897</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>44919.29222</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>43484.52544999999</v>
+        <v>43484.52545</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>53203.87656</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>56685.64474</v>
+        <v>56685.68306</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>89234.68569</v>
+        <v>89246.83396999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>148183.75798</v>
+        <v>148347.49823</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>141839.40828</v>
+        <v>142162.20571</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>137318.47375</v>
+        <v>172039.54271</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>195614.87767</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>213899.26356</v>
+        <v>215713.56591</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>328890.96147</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>330273.06289</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>329177.163</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>37588.46887</v>
@@ -2753,37 +2889,42 @@
         <v>239155.03415</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>55491.25114</v>
+        <v>55491.54939999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>56012.53850999999</v>
+        <v>56156.69269999999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>189016.80583</v>
+        <v>189081.42485</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>91813.11088000001</v>
+        <v>92114.51571000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>234694.23088</v>
+        <v>241095.62299</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>151230.61121</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>318488.91015</v>
+        <v>325974.36133</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>188847.98767</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>191842.3305</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>239269.051</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>636.5155699999999</v>
+        <v>636.51557</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>786.0449699999999</v>
@@ -2801,7 +2942,7 @@
         <v>2007.59341</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>652.13956</v>
+        <v>652.1395600000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>10121.98205</v>
@@ -2813,13 +2954,18 @@
         <v>1330.86354</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>7443.79113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>7479.15693</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1909.499</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2808.8294</v>
@@ -2834,31 +2980,36 @@
         <v>3791.17938</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2507.45211</v>
+        <v>2614.46292</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2312.91647</v>
+        <v>2316.86877</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3476.043729999999</v>
+        <v>3479.261489999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4949.820070000001</v>
+        <v>5396.52518</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>24326.65078</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5492.94651</v>
+        <v>5954.85247</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5943.89388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5956.94751</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>18131.003</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>34143.1239</v>
@@ -2870,34 +3021,39 @@
         <v>234215.71221</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>49135.26298</v>
+        <v>49135.56124</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>52205.2158</v>
+        <v>52242.35918000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>184696.29595</v>
+        <v>184756.96267</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>87684.92759000001</v>
+        <v>87983.11465999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>219622.42876</v>
+        <v>225577.11576</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>112976.7516</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>311665.1001</v>
+        <v>318688.64532</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>175460.30266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>178406.22606</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>219228.549</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>349218.13256</v>
@@ -2906,40 +3062,45 @@
         <v>481351.33739</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>436008.00034</v>
+        <v>435986.48386</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>606392.42325</v>
+        <v>606754.00378</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>713859.4254900001</v>
+        <v>713595.11097</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>786078.1098399999</v>
+        <v>786482.2656199998</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>968850.8086</v>
+        <v>970825.59686</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>864279.3465699999</v>
+        <v>980130.00093</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1585250.90775</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1778705.45801</v>
+        <v>1708129.20208</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2411933.91561</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2415867.67775</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>3955731.523</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>65835.35408999999</v>
+        <v>65835.35409000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>87165.92371</v>
@@ -2954,64 +3115,72 @@
         <v>149449.53913</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>176960.82895</v>
+        <v>177037.94224</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>196777.0514</v>
+        <v>197178.63629</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>197848.64029</v>
+        <v>217545.04457</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>318022.27906</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>467792.6848100001</v>
+        <v>468130.45881</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>516493.50557</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>522207.0034500001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>786166.5379999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>283382.77847</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>394185.41368</v>
+        <v>394185.4136800001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>309786.00381</v>
+        <v>309764.48733</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>475062.7690800001</v>
+        <v>475424.34961</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>564409.88636</v>
+        <v>564145.57184</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>609117.2808899999</v>
+        <v>609444.32338</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>772073.7572</v>
+        <v>773646.96057</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>666430.7062799999</v>
+        <v>762584.9563600001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1267228.62869</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>1310912.7732</v>
+        <v>1239998.74327</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1895440.41004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1893660.6743</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3169564.985</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>7720</v>
@@ -3038,34 +3210,37 @@
         <v>7837</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7917</v>
+        <v>7918</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7880</v>
+        <v>7883</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7681</v>
+        <v>7687</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7667</v>
+        <v>7682</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>7728</v>
+        <v>7780</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>7841</v>
+        <v>7898</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>8196</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7966</v>
+        <v>8522</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>8191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8994</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>